--- a/team_specific_matrix/Sacramento St._A.xlsx
+++ b/team_specific_matrix/Sacramento St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1932367149758454</v>
+        <v>0.204</v>
       </c>
       <c r="C2">
-        <v>0.5410628019323671</v>
+        <v>0.524</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02415458937198068</v>
+        <v>0.028</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1545893719806763</v>
+        <v>0.164</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08695652173913043</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02542372881355932</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01694915254237288</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7457627118644068</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.211864406779661</v>
+        <v>0.2028985507246377</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0303030303030303</v>
+        <v>0.025</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.303030303030303</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04736842105263158</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005263157894736842</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07894736842105263</v>
+        <v>0.06926406926406926</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2578947368421053</v>
+        <v>0.2640692640692641</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04210526315789474</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1526315789473684</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="R6">
-        <v>0.04736842105263158</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="S6">
-        <v>0.3684210526315789</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1076923076923077</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02307692307692308</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1076923076923077</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1461538461538462</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01538461538461539</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1461538461538462</v>
+        <v>0.120253164556962</v>
       </c>
       <c r="R7">
-        <v>0.09230769230769231</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="S7">
-        <v>0.3615384615384615</v>
+        <v>0.4113924050632912</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0830860534124629</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01780415430267062</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07418397626112759</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1394658753709199</v>
+        <v>0.1589861751152074</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03264094955489615</v>
+        <v>0.02995391705069124</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1780415430267062</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="R8">
-        <v>0.0771513353115727</v>
+        <v>0.09216589861751152</v>
       </c>
       <c r="S8">
-        <v>0.3976261127596439</v>
+        <v>0.3847926267281106</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1025641025641026</v>
+        <v>0.08717948717948718</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01282051282051282</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08974358974358974</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1153846153846154</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03205128205128205</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1474358974358974</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="R9">
-        <v>0.09615384615384616</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="S9">
-        <v>0.4038461538461539</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.102510460251046</v>
+        <v>0.1019900497512438</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02405857740585774</v>
+        <v>0.02155887230514096</v>
       </c>
       <c r="E10">
-        <v>0.002092050209205021</v>
+        <v>0.001658374792703151</v>
       </c>
       <c r="F10">
-        <v>0.07426778242677824</v>
+        <v>0.07545605306799337</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1401673640167364</v>
+        <v>0.1434494195688226</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02405857740585774</v>
+        <v>0.02321724709784411</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.198744769874477</v>
+        <v>0.1981757877280265</v>
       </c>
       <c r="R10">
-        <v>0.07217573221757322</v>
+        <v>0.0812603648424544</v>
       </c>
       <c r="S10">
-        <v>0.3619246861924686</v>
+        <v>0.3532338308457711</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1064814814814815</v>
+        <v>0.1062992125984252</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1111111111111111</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="K11">
-        <v>0.1851851851851852</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="L11">
-        <v>0.5833333333333334</v>
+        <v>0.5905511811023622</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01388888888888889</v>
+        <v>0.01181102362204724</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7322834645669292</v>
+        <v>0.7483443708609272</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2204724409448819</v>
+        <v>0.2052980132450331</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="L12">
-        <v>0.03149606299212598</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01574803149606299</v>
+        <v>0.01324503311258278</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6129032258064516</v>
+        <v>0.625</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2580645161290323</v>
+        <v>0.275</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1290322580645161</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01063829787234043</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1436170212765958</v>
+        <v>0.1652173913043478</v>
       </c>
       <c r="I15">
-        <v>0.09042553191489362</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="J15">
-        <v>0.3138297872340425</v>
+        <v>0.308695652173913</v>
       </c>
       <c r="K15">
-        <v>0.06382978723404255</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01063829787234043</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03723404255319149</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3297872340425532</v>
+        <v>0.3130434782608696</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0072992700729927</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2262773722627737</v>
+        <v>0.2349397590361446</v>
       </c>
       <c r="I16">
-        <v>0.0583941605839416</v>
+        <v>0.09036144578313253</v>
       </c>
       <c r="J16">
-        <v>0.4087591240875912</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="K16">
-        <v>0.072992700729927</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0291970802919708</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0583941605839416</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1386861313868613</v>
+        <v>0.1144578313253012</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01875</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.178125</v>
+        <v>0.1908396946564886</v>
       </c>
       <c r="I17">
-        <v>0.1125</v>
+        <v>0.1119592875318066</v>
       </c>
       <c r="J17">
-        <v>0.40625</v>
+        <v>0.3994910941475827</v>
       </c>
       <c r="K17">
-        <v>0.1</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.028125</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.078125</v>
+        <v>0.07888040712468193</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.078125</v>
+        <v>0.08142493638676845</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03076923076923077</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1923076923076923</v>
+        <v>0.2108108108108108</v>
       </c>
       <c r="I18">
-        <v>0.06923076923076923</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="J18">
-        <v>0.4846153846153846</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="K18">
-        <v>0.06153846153846154</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01538461538461539</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06153846153846154</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08461538461538462</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01958650707290533</v>
+        <v>0.01858407079646018</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2154515778019586</v>
+        <v>0.2194690265486726</v>
       </c>
       <c r="I19">
-        <v>0.09575625680087051</v>
+        <v>0.09203539823008849</v>
       </c>
       <c r="J19">
-        <v>0.3547334058759521</v>
+        <v>0.3610619469026549</v>
       </c>
       <c r="K19">
-        <v>0.1251360174102285</v>
+        <v>0.1176991150442478</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01741022850924918</v>
+        <v>0.02035398230088496</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06964091403699674</v>
+        <v>0.07256637168141593</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.102285092491839</v>
+        <v>0.09823008849557523</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Sacramento St._A.xlsx
+++ b/team_specific_matrix/Sacramento St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.204</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="C2">
-        <v>0.524</v>
+        <v>0.5141843971631206</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.028</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.164</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08</v>
+        <v>0.0851063829787234</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02898550724637681</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01449275362318841</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7536231884057971</v>
+        <v>0.7337662337662337</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2028985507246377</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.025</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.025</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P4">
-        <v>0.65</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3</v>
+        <v>0.2790697674418605</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03896103896103896</v>
+        <v>0.05138339920948617</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01298701298701299</v>
+        <v>0.01185770750988142</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06926406926406926</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2640692640692641</v>
+        <v>0.2490118577075099</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03463203463203463</v>
+        <v>0.03557312252964427</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1515151515151515</v>
+        <v>0.150197628458498</v>
       </c>
       <c r="R6">
-        <v>0.06493506493506493</v>
+        <v>0.06324110671936758</v>
       </c>
       <c r="S6">
-        <v>0.3636363636363636</v>
+        <v>0.3715415019762846</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1012658227848101</v>
+        <v>0.1040462427745665</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02531645569620253</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0949367088607595</v>
+        <v>0.09826589595375723</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1392405063291139</v>
+        <v>0.1502890173410405</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01265822784810127</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.120253164556962</v>
+        <v>0.1098265895953757</v>
       </c>
       <c r="R7">
-        <v>0.0949367088607595</v>
+        <v>0.09248554913294797</v>
       </c>
       <c r="S7">
-        <v>0.4113924050632912</v>
+        <v>0.3988439306358382</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07142857142857142</v>
+        <v>0.07641921397379912</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01612903225806452</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06912442396313365</v>
+        <v>0.07205240174672489</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1589861751152074</v>
+        <v>0.1528384279475982</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02995391705069124</v>
+        <v>0.03275109170305677</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1774193548387097</v>
+        <v>0.1768558951965065</v>
       </c>
       <c r="R8">
-        <v>0.09216589861751152</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="S8">
-        <v>0.3847926267281106</v>
+        <v>0.3842794759825328</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08717948717948718</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01025641025641026</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07692307692307693</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1282051282051282</v>
+        <v>0.1359223300970874</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03589743589743589</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1333333333333333</v>
+        <v>0.1310679611650485</v>
       </c>
       <c r="R9">
-        <v>0.09230769230769231</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="S9">
-        <v>0.4358974358974359</v>
+        <v>0.4271844660194175</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1019900497512438</v>
+        <v>0.1024464831804281</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02155887230514096</v>
+        <v>0.02140672782874618</v>
       </c>
       <c r="E10">
-        <v>0.001658374792703151</v>
+        <v>0.001529051987767584</v>
       </c>
       <c r="F10">
-        <v>0.07545605306799337</v>
+        <v>0.077217125382263</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1434494195688226</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02321724709784411</v>
+        <v>0.02370030581039755</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1981757877280265</v>
+        <v>0.1957186544342508</v>
       </c>
       <c r="R10">
-        <v>0.0812603648424544</v>
+        <v>0.08486238532110092</v>
       </c>
       <c r="S10">
-        <v>0.3532338308457711</v>
+        <v>0.3555045871559633</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1062992125984252</v>
+        <v>0.1099290780141844</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1102362204724409</v>
+        <v>0.1099290780141844</v>
       </c>
       <c r="K11">
-        <v>0.1811023622047244</v>
+        <v>0.1843971631205674</v>
       </c>
       <c r="L11">
-        <v>0.5905511811023622</v>
+        <v>0.5815602836879432</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01181102362204724</v>
+        <v>0.01418439716312057</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7483443708609272</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2052980132450331</v>
+        <v>0.2060606060606061</v>
       </c>
       <c r="K12">
-        <v>0.006622516556291391</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="L12">
-        <v>0.02649006622516556</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01324503311258278</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.625</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.275</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01304347826086956</v>
+        <v>0.01556420233463035</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1652173913043478</v>
+        <v>0.1556420233463035</v>
       </c>
       <c r="I15">
-        <v>0.08260869565217391</v>
+        <v>0.07782101167315175</v>
       </c>
       <c r="J15">
-        <v>0.308695652173913</v>
+        <v>0.3229571984435798</v>
       </c>
       <c r="K15">
-        <v>0.06086956521739131</v>
+        <v>0.05836575875486381</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01304347826086956</v>
+        <v>0.01556420233463035</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04347826086956522</v>
+        <v>0.05058365758754864</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3130434782608696</v>
+        <v>0.3035019455252918</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01204819277108434</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2349397590361446</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="I16">
-        <v>0.09036144578313253</v>
+        <v>0.09340659340659341</v>
       </c>
       <c r="J16">
-        <v>0.4096385542168675</v>
+        <v>0.4010989010989011</v>
       </c>
       <c r="K16">
-        <v>0.06024096385542169</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03012048192771084</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04819277108433735</v>
+        <v>0.04945054945054945</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1144578313253012</v>
+        <v>0.1208791208791209</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01526717557251908</v>
+        <v>0.01674641148325359</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1908396946564886</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="I17">
-        <v>0.1119592875318066</v>
+        <v>0.1124401913875598</v>
       </c>
       <c r="J17">
-        <v>0.3994910941475827</v>
+        <v>0.4043062200956938</v>
       </c>
       <c r="K17">
-        <v>0.09923664122137404</v>
+        <v>0.09808612440191387</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02290076335877863</v>
+        <v>0.0215311004784689</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07888040712468193</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08142493638676845</v>
+        <v>0.0861244019138756</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03243243243243243</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2108108108108108</v>
+        <v>0.1930693069306931</v>
       </c>
       <c r="I18">
-        <v>0.08108108108108109</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="J18">
-        <v>0.4594594594594595</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="K18">
-        <v>0.07027027027027027</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01081081081081081</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05405405405405406</v>
+        <v>0.05445544554455446</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08108108108108109</v>
+        <v>0.07425742574257425</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01858407079646018</v>
+        <v>0.01710097719869707</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2194690265486726</v>
+        <v>0.2182410423452769</v>
       </c>
       <c r="I19">
-        <v>0.09203539823008849</v>
+        <v>0.08794788273615635</v>
       </c>
       <c r="J19">
-        <v>0.3610619469026549</v>
+        <v>0.3631921824104234</v>
       </c>
       <c r="K19">
-        <v>0.1176991150442478</v>
+        <v>0.1180781758957655</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02035398230088496</v>
+        <v>0.02198697068403909</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07256637168141593</v>
+        <v>0.07491856677524431</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09823008849557523</v>
+        <v>0.0985342019543974</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Sacramento St._A.xlsx
+++ b/team_specific_matrix/Sacramento St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2127659574468085</v>
+        <v>0.2118055555555556</v>
       </c>
       <c r="C2">
-        <v>0.5141843971631206</v>
+        <v>0.5173611111111112</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02836879432624113</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1595744680851064</v>
+        <v>0.1597222222222222</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0851063829787234</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03896103896103896</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01298701298701299</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7337662337662337</v>
+        <v>0.740506329113924</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2142857142857143</v>
+        <v>0.2088607594936709</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="P4">
-        <v>0.6744186046511628</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2790697674418605</v>
+        <v>0.2888888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05138339920948617</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01185770750988142</v>
+        <v>0.01158301158301158</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06719367588932806</v>
+        <v>0.06563706563706563</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2490118577075099</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03557312252964427</v>
+        <v>0.03474903474903475</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.150197628458498</v>
+        <v>0.1467181467181467</v>
       </c>
       <c r="R6">
-        <v>0.06324110671936758</v>
+        <v>0.06563706563706563</v>
       </c>
       <c r="S6">
-        <v>0.3715415019762846</v>
+        <v>0.3783783783783784</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1040462427745665</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02312138728323699</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09826589595375723</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1502890173410405</v>
+        <v>0.1491712707182321</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02312138728323699</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1098265895953757</v>
+        <v>0.1104972375690608</v>
       </c>
       <c r="R7">
-        <v>0.09248554913294797</v>
+        <v>0.09392265193370165</v>
       </c>
       <c r="S7">
-        <v>0.3988439306358382</v>
+        <v>0.3922651933701657</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07641921397379912</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01746724890829694</v>
+        <v>0.01867219917012448</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07205240174672489</v>
+        <v>0.07261410788381743</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1528384279475982</v>
+        <v>0.1535269709543569</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03275109170305677</v>
+        <v>0.03112033195020747</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1768558951965065</v>
+        <v>0.1701244813278008</v>
       </c>
       <c r="R8">
-        <v>0.08733624454148471</v>
+        <v>0.09336099585062241</v>
       </c>
       <c r="S8">
-        <v>0.3842794759825328</v>
+        <v>0.3858921161825726</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09223300970873786</v>
+        <v>0.08878504672897196</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009708737864077669</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07281553398058252</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1359223300970874</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03883495145631068</v>
+        <v>0.04205607476635514</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1310679611650485</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="R9">
-        <v>0.09223300970873786</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="S9">
-        <v>0.4271844660194175</v>
+        <v>0.4252336448598131</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1024464831804281</v>
+        <v>0.1018587360594796</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02140672782874618</v>
+        <v>0.02156133828996282</v>
       </c>
       <c r="E10">
-        <v>0.001529051987767584</v>
+        <v>0.001486988847583643</v>
       </c>
       <c r="F10">
-        <v>0.077217125382263</v>
+        <v>0.07657992565055761</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1376146788990826</v>
+        <v>0.1353159851301115</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02370030581039755</v>
+        <v>0.02304832713754647</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1957186544342508</v>
+        <v>0.1955390334572491</v>
       </c>
       <c r="R10">
-        <v>0.08486238532110092</v>
+        <v>0.08847583643122676</v>
       </c>
       <c r="S10">
-        <v>0.3555045871559633</v>
+        <v>0.3561338289962825</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1099290780141844</v>
+        <v>0.1160409556313993</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1099290780141844</v>
+        <v>0.10580204778157</v>
       </c>
       <c r="K11">
-        <v>0.1843971631205674</v>
+        <v>0.1877133105802048</v>
       </c>
       <c r="L11">
-        <v>0.5815602836879432</v>
+        <v>0.5767918088737202</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01418439716312057</v>
+        <v>0.0136518771331058</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7333333333333333</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2060606060606061</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="K12">
-        <v>0.006060606060606061</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="L12">
-        <v>0.02424242424242424</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6222222222222222</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2666666666666667</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1111111111111111</v>
+        <v>0.1063829787234043</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01556420233463035</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1556420233463035</v>
+        <v>0.1553030303030303</v>
       </c>
       <c r="I15">
-        <v>0.07782101167315175</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="J15">
-        <v>0.3229571984435798</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="K15">
-        <v>0.05836575875486381</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01556420233463035</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05058365758754864</v>
+        <v>0.05303030303030303</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3035019455252918</v>
+        <v>0.3106060606060606</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02197802197802198</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2197802197802198</v>
+        <v>0.2180851063829787</v>
       </c>
       <c r="I16">
-        <v>0.09340659340659341</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="J16">
-        <v>0.4010989010989011</v>
+        <v>0.4095744680851064</v>
       </c>
       <c r="K16">
-        <v>0.06593406593406594</v>
+        <v>0.06914893617021277</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02747252747252747</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04945054945054945</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1208791208791209</v>
+        <v>0.1170212765957447</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01674641148325359</v>
+        <v>0.01635514018691589</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1842105263157895</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="I17">
-        <v>0.1124401913875598</v>
+        <v>0.1121495327102804</v>
       </c>
       <c r="J17">
-        <v>0.4043062200956938</v>
+        <v>0.4042056074766355</v>
       </c>
       <c r="K17">
-        <v>0.09808612440191387</v>
+        <v>0.09579439252336448</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0215311004784689</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07655502392344497</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.0861244019138756</v>
+        <v>0.08644859813084112</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0297029702970297</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1930693069306931</v>
+        <v>0.2191780821917808</v>
       </c>
       <c r="I18">
-        <v>0.07920792079207921</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="J18">
-        <v>0.4752475247524752</v>
+        <v>0.4611872146118721</v>
       </c>
       <c r="K18">
-        <v>0.08415841584158416</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009900990099009901</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05445544554455446</v>
+        <v>0.0502283105022831</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07425742574257425</v>
+        <v>0.0684931506849315</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01710097719869707</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2182410423452769</v>
+        <v>0.2182103610675039</v>
       </c>
       <c r="I19">
-        <v>0.08794788273615635</v>
+        <v>0.08869701726844584</v>
       </c>
       <c r="J19">
-        <v>0.3631921824104234</v>
+        <v>0.3618524332810047</v>
       </c>
       <c r="K19">
-        <v>0.1180781758957655</v>
+        <v>0.1185243328100471</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02198697068403909</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07491856677524431</v>
+        <v>0.07378335949764521</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.0985342019543974</v>
+        <v>0.1004709576138148</v>
       </c>
     </row>
   </sheetData>
